--- a/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE0575E-E8FC-4DDD-BED1-6B5516D66E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75BF385-2B44-4BBB-9A7A-298EB47128B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41500523-7608-4E34-80A6-04AD3C2DA601}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B831BB5E-8C99-4118-9594-5ECCDC042C20}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,7 +194,7 @@
     <t>91,75%</t>
   </si>
   <si>
-    <t>89,26%</t>
+    <t>89,3%</t>
   </si>
   <si>
     <t>93,6%</t>
@@ -203,19 +203,16 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>88,76%</t>
   </si>
   <si>
     <t>8,25%</t>
@@ -224,79 +221,76 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>10,74%</t>
+    <t>10,7%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>11,24%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC91335D-38B4-446D-8F7C-D39777F818C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443C9A9B-79D1-4980-AA7D-793FFAA88474}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1181,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>53415</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -1211,13 +1205,13 @@
         <v>78552</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -1226,13 +1220,13 @@
         <v>131967</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>2742012</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4177</v>
@@ -1315,28 +1309,28 @@
         <v>3033187</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>6843</v>
       </c>
       <c r="N13" s="7">
-        <v>5775200</v>
+        <v>5775199</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>365354</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>692</v>
@@ -1366,13 +1360,13 @@
         <v>449626</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
@@ -1381,13 +1375,13 @@
         <v>814980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,7 +1423,7 @@
         <v>7950</v>
       </c>
       <c r="N15" s="7">
-        <v>6590180</v>
+        <v>6590179</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75BF385-2B44-4BBB-9A7A-298EB47128B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0778CA25-2975-4220-B2BC-40A9E86E1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B831BB5E-8C99-4118-9594-5ECCDC042C20}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F906C5ED-23C9-43A1-A905-942E5CFD6774}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443C9A9B-79D1-4980-AA7D-793FFAA88474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3501613E-8AD6-4420-ACBE-E35E4AC5AB71}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0778CA25-2975-4220-B2BC-40A9E86E1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADDC18D-254D-4E70-9E4D-737D092C68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F906C5ED-23C9-43A1-A905-942E5CFD6774}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1970F78D-E15E-4DD4-9745-ADEBE46D2EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,7 +194,7 @@
     <t>91,75%</t>
   </si>
   <si>
-    <t>89,3%</t>
+    <t>89,26%</t>
   </si>
   <si>
     <t>93,6%</t>
@@ -203,16 +203,19 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>88,76%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>8,25%</t>
@@ -221,76 +224,79 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>10,7%</t>
+    <t>10,74%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3501613E-8AD6-4420-ACBE-E35E4AC5AB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235A8AB4-D700-4BE8-9EC1-800A921DA68A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1175,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>53415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -1205,13 +1211,13 @@
         <v>78552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -1220,13 +1226,13 @@
         <v>131967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>2742012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4177</v>
@@ -1309,28 +1315,28 @@
         <v>3033187</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>6843</v>
       </c>
       <c r="N13" s="7">
-        <v>5775199</v>
+        <v>5775200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>365354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>692</v>
@@ -1360,13 +1366,13 @@
         <v>449626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
@@ -1375,13 +1381,13 @@
         <v>814980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1429,7 @@
         <v>7950</v>
       </c>
       <c r="N15" s="7">
-        <v>6590179</v>
+        <v>6590180</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADDC18D-254D-4E70-9E4D-737D092C68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64D770A6-6889-411C-9395-9EDBEFBC1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1970F78D-E15E-4DD4-9745-ADEBE46D2EC3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3908B086-006D-4619-A167-F88E6175B4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235A8AB4-D700-4BE8-9EC1-800A921DA68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8793354-0A19-46B3-9C6A-CE8EA84E5726}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>452</v>
       </c>
       <c r="D4" s="7">
-        <v>366705</v>
+        <v>345287</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>956</v>
       </c>
       <c r="I4" s="7">
-        <v>578571</v>
+        <v>518792</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>1408</v>
       </c>
       <c r="N4" s="7">
-        <v>945276</v>
+        <v>864079</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>79497</v>
+        <v>81617</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>97425</v>
+        <v>92318</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>280</v>
       </c>
       <c r="N5" s="7">
-        <v>176922</v>
+        <v>173935</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>556</v>
       </c>
       <c r="D6" s="7">
-        <v>446202</v>
+        <v>426904</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>1132</v>
       </c>
       <c r="I6" s="7">
-        <v>675996</v>
+        <v>611110</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>1688</v>
       </c>
       <c r="N6" s="7">
-        <v>1122198</v>
+        <v>1038014</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>1627</v>
       </c>
       <c r="D7" s="7">
-        <v>1781470</v>
+        <v>1908973</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>2364</v>
       </c>
       <c r="I7" s="7">
-        <v>1838936</v>
+        <v>1769264</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>3991</v>
       </c>
       <c r="N7" s="7">
-        <v>3620406</v>
+        <v>3678237</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>246</v>
       </c>
       <c r="D8" s="7">
-        <v>232442</v>
+        <v>241715</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>396</v>
       </c>
       <c r="I8" s="7">
-        <v>273649</v>
+        <v>320415</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>642</v>
       </c>
       <c r="N8" s="7">
-        <v>506091</v>
+        <v>562130</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1873</v>
       </c>
       <c r="D9" s="7">
-        <v>2013912</v>
+        <v>2150688</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>2760</v>
       </c>
       <c r="I9" s="7">
-        <v>2112585</v>
+        <v>2089679</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>4633</v>
       </c>
       <c r="N9" s="7">
-        <v>4126497</v>
+        <v>4240367</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>587</v>
       </c>
       <c r="D10" s="7">
-        <v>593837</v>
+        <v>568644</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1151,7 @@
         <v>857</v>
       </c>
       <c r="I10" s="7">
-        <v>615680</v>
+        <v>566727</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1166,7 @@
         <v>1444</v>
       </c>
       <c r="N10" s="7">
-        <v>1209517</v>
+        <v>1135371</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>53415</v>
+        <v>53774</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1202,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>78552</v>
+        <v>75541</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1217,7 @@
         <v>185</v>
       </c>
       <c r="N11" s="7">
-        <v>131967</v>
+        <v>129315</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1238,7 @@
         <v>652</v>
       </c>
       <c r="D12" s="7">
-        <v>647252</v>
+        <v>622418</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>977</v>
       </c>
       <c r="I12" s="7">
-        <v>694232</v>
+        <v>642268</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1629</v>
       </c>
       <c r="N12" s="7">
-        <v>1341484</v>
+        <v>1264686</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1291,7 @@
         <v>2666</v>
       </c>
       <c r="D13" s="7">
-        <v>2742012</v>
+        <v>2822904</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1306,7 @@
         <v>4177</v>
       </c>
       <c r="I13" s="7">
-        <v>3033187</v>
+        <v>2854783</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,16 +1321,16 @@
         <v>6843</v>
       </c>
       <c r="N13" s="7">
-        <v>5775200</v>
+        <v>5677687</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>415</v>
       </c>
       <c r="D14" s="7">
-        <v>365354</v>
+        <v>377106</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>692</v>
       </c>
       <c r="I14" s="7">
-        <v>449626</v>
+        <v>488274</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
       </c>
       <c r="N14" s="7">
-        <v>814980</v>
+        <v>865380</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3081</v>
       </c>
       <c r="D15" s="7">
-        <v>3107366</v>
+        <v>3200010</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>4869</v>
       </c>
       <c r="I15" s="7">
-        <v>3482813</v>
+        <v>3343057</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>7950</v>
       </c>
       <c r="N15" s="7">
-        <v>6590180</v>
+        <v>6543067</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
